--- a/data/long_razon/P19_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P19_2-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-28,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 23,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 19,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 100,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 103,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 67,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 81,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 45,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 25,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 61,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-30,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,75; -16,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 83,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 36,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -4,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 107,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 28,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -16,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,36; 78,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 23,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-41,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 22,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,04; 139,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 47,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,35; -22,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,07; 134,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 32,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 118,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 28,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 63,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 30,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,55; 79,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 26,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 61,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 21,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P19_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P19_2-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.02308084033769016</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3269821533750813</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1457855606448118</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.04054475357470059</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.4305849868933314</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.3898181627615365</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.005472030259140512</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.6890365851586684</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>0.2183661820782164</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.00370577350399984</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.07164058961543372</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.334251240627285</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4713872746985827</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6860955468254054</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2579896755364517</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6065061182943892</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.1122858810060326</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1403981744350103</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2556522250652827</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.08471319257628945</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.2007135636790262</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3325672308964523</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.173710868732912</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.298628445705035</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.7186438803075306</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1819973639786338</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9350568911655721</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.012634829270338</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>1.253899865542076</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.202459411274207</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.4300359363674977</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.715268063160122</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.7546937607417209</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.4562189440499456</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.4385473451294906</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.9607459962702067</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.4301358309266359</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7275025525815937</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.05129168788622285</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9684874251754395</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.1698938284706506</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.4981856050655418</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.05462073165752466</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.04558762225404939</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.3016822198066319</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6086432418801292</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.05306016360801404</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.3425487275056603</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5967873879613641</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2595653162900799</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2371661443288271</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.4127044496452353</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.3849682929645508</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1244926170766825</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.147950106875638</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2874506336197877</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.444431631493545</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.2926989122933455</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1154400592085692</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.07551324824270039</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.1948899611440847</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.471097004092301</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4500848073561735</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.876188499043294</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>0.112754475382381</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.042269492920581</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3264550821500651</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2766250765642593</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>-0.1119446264411223</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.996370160523245</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2931670657899824</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.7082744839991785</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1779536825565764</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8066990068893222</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03710697692937037</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.07657697984334447</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.4198816648294205</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.6749722438010045</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.01980265260803173</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.5490016994085167</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.3106463685886339</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.7370109976234694</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.02745838927176112</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.292765303304746</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4672491613676734</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2401058694315557</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2572580695084006</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3278954637344645</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.5954684954361446</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.2215672537544915</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2014591578323474</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.1424376587570418</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.4798965397199991</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.3960660797235748</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1609344777251006</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.02725771784411532</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.206984130909485</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.642432309152978</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4409375249169179</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.5966892082721807</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.154619520437532</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.301553599931862</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3216049941153658</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.096998480896402</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.09906214832192235</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.179003451880261</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.236074392190724</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.7067183645930756</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.3030284652186522</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4935137517241609</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.06974125816560599</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3708898844043321</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.1799261196896151</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5354051274942914</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.03196773851594212</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2815902313916523</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.2394401331117796</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5147493842020592</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.04938711780948556</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3240785955626356</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.4627399381777567</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.188229467905953</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1338884646995915</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1013921004901053</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.3292443136758542</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2719590586985549</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1104258769007257</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.0568280376291132</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.3498377520860425</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.290989442733935</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.07378322808750419</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.08841275091284879</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.1043063544843501</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8909022202536003</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3014961699847197</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7500554090876688</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.003396177843908018</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.8570487381349231</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1884077881052205</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5661178589847023</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.104598530178564</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7321327417908193</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1850716612430322</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.5673575996557225</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
